--- a/excel/广东某大学招生计划.xlsx
+++ b/excel/广东某大学招生计划.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\课本\2020秋\数据库\高考平行志愿模拟录取系统\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C477EB7-3BB6-4151-B326-BBEDC72B7F26}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20616" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="招生计划" sheetId="1" r:id="rId1"/>
@@ -569,11 +575,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1171,24 +1177,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1203,15 +1209,15 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1516,32 +1522,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>153</v>
       </c>
@@ -1564,7 +1570,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1584,10 +1590,10 @@
         <v>3</v>
       </c>
       <c r="G2" s="2">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1607,10 +1613,10 @@
         <v>3</v>
       </c>
       <c r="G3" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1630,10 +1636,10 @@
         <v>3</v>
       </c>
       <c r="G4" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1653,10 +1659,10 @@
         <v>3</v>
       </c>
       <c r="G5" s="2">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1676,10 +1682,10 @@
         <v>3</v>
       </c>
       <c r="G6" s="2">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1699,10 +1705,10 @@
         <v>3</v>
       </c>
       <c r="G7" s="2">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1722,10 +1728,10 @@
         <v>3</v>
       </c>
       <c r="G8" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1745,10 +1751,10 @@
         <v>3</v>
       </c>
       <c r="G9" s="2">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1768,10 +1774,10 @@
         <v>3</v>
       </c>
       <c r="G10" s="2">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1791,10 +1797,10 @@
         <v>3</v>
       </c>
       <c r="G11" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -1814,10 +1820,10 @@
         <v>3</v>
       </c>
       <c r="G12" s="2">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -1837,10 +1843,10 @@
         <v>3</v>
       </c>
       <c r="G13" s="2">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -1860,10 +1866,10 @@
         <v>3</v>
       </c>
       <c r="G14" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -1883,10 +1889,10 @@
         <v>3</v>
       </c>
       <c r="G15" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -1906,10 +1912,10 @@
         <v>3</v>
       </c>
       <c r="G16" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
@@ -1929,10 +1935,10 @@
         <v>3</v>
       </c>
       <c r="G17" s="2">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
@@ -1952,10 +1958,10 @@
         <v>3</v>
       </c>
       <c r="G18" s="2">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -1975,10 +1981,10 @@
         <v>3</v>
       </c>
       <c r="G19" s="2">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
@@ -1998,10 +2004,10 @@
         <v>3</v>
       </c>
       <c r="G20" s="2">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>58</v>
       </c>
@@ -2021,10 +2027,10 @@
         <v>3</v>
       </c>
       <c r="G21" s="2">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>61</v>
       </c>
@@ -2044,10 +2050,10 @@
         <v>3</v>
       </c>
       <c r="G22" s="2">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
@@ -2067,10 +2073,10 @@
         <v>3</v>
       </c>
       <c r="G23" s="2">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -2090,10 +2096,10 @@
         <v>3</v>
       </c>
       <c r="G24" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
@@ -2113,10 +2119,10 @@
         <v>3</v>
       </c>
       <c r="G25" s="2">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>73</v>
       </c>
@@ -2136,10 +2142,10 @@
         <v>3</v>
       </c>
       <c r="G26" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>76</v>
       </c>
@@ -2159,10 +2165,10 @@
         <v>3</v>
       </c>
       <c r="G27" s="2">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>79</v>
       </c>
@@ -2182,10 +2188,10 @@
         <v>3</v>
       </c>
       <c r="G28" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
@@ -2205,10 +2211,10 @@
         <v>3</v>
       </c>
       <c r="G29" s="2">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>85</v>
       </c>
@@ -2228,10 +2234,10 @@
         <v>3</v>
       </c>
       <c r="G30" s="2">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>88</v>
       </c>
@@ -2251,10 +2257,10 @@
         <v>3</v>
       </c>
       <c r="G31" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>91</v>
       </c>
@@ -2277,7 +2283,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>94</v>
       </c>
@@ -2297,10 +2303,10 @@
         <v>3</v>
       </c>
       <c r="G33" s="2">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>97</v>
       </c>
@@ -2320,10 +2326,10 @@
         <v>3</v>
       </c>
       <c r="G34" s="2">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>100</v>
       </c>
@@ -2343,10 +2349,10 @@
         <v>3</v>
       </c>
       <c r="G35" s="2">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>103</v>
       </c>
@@ -2366,10 +2372,10 @@
         <v>3</v>
       </c>
       <c r="G36" s="2">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>106</v>
       </c>
@@ -2389,10 +2395,10 @@
         <v>3</v>
       </c>
       <c r="G37" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>109</v>
       </c>
@@ -2412,10 +2418,10 @@
         <v>3</v>
       </c>
       <c r="G38" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>112</v>
       </c>
@@ -2435,10 +2441,10 @@
         <v>3</v>
       </c>
       <c r="G39" s="2">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>115</v>
       </c>
@@ -2458,10 +2464,10 @@
         <v>3</v>
       </c>
       <c r="G40" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>118</v>
       </c>
@@ -2481,10 +2487,10 @@
         <v>3</v>
       </c>
       <c r="G41" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>121</v>
       </c>
@@ -2504,10 +2510,10 @@
         <v>3</v>
       </c>
       <c r="G42" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>124</v>
       </c>
@@ -2527,10 +2533,10 @@
         <v>3</v>
       </c>
       <c r="G43" s="2">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>127</v>
       </c>
@@ -2550,10 +2556,10 @@
         <v>3</v>
       </c>
       <c r="G44" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>130</v>
       </c>
@@ -2573,10 +2579,10 @@
         <v>3</v>
       </c>
       <c r="G45" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>133</v>
       </c>
@@ -2596,10 +2602,10 @@
         <v>3</v>
       </c>
       <c r="G46" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>136</v>
       </c>
@@ -2619,10 +2625,10 @@
         <v>3</v>
       </c>
       <c r="G47" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>139</v>
       </c>
@@ -2642,10 +2648,10 @@
         <v>142</v>
       </c>
       <c r="G48" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>143</v>
       </c>
@@ -2665,10 +2671,10 @@
         <v>142</v>
       </c>
       <c r="G49" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>146</v>
       </c>
@@ -2688,7 +2694,7 @@
         <v>142</v>
       </c>
       <c r="G50" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
